--- a/data_excel/916.xlsx
+++ b/data_excel/916.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\前400題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -60,9 +60,6 @@
     <t>走了</t>
   </si>
   <si>
-    <t>pv</t>
-  </si>
-  <si>
     <t>+</t>
   </si>
   <si>
@@ -153,6 +150,10 @@
   </si>
   <si>
     <t>=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -526,7 +527,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -551,7 +552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -571,15 +572,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
@@ -593,167 +594,167 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
         <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
         <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
         <v>35</v>
       </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
         <v>37</v>
       </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -769,15 +770,15 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
